--- a/data/trans_orig/P5701-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6408C9D-D0B1-4CEB-88FE-2DB830B02DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3265D0-5A09-4598-953C-379DDD4D008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03D51506-4513-45EA-B903-0BC5ACC75606}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3330E75A-C786-4CF9-BAEC-10676F8C4883}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1102">
   <si>
     <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1007,2293 +1007,2344 @@
     <t>65,61%</t>
   </si>
   <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
   </si>
   <si>
     <t>65,41%</t>
   </si>
   <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir visitas de amigos y familiares en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
   </si>
 </sst>
 </file>
@@ -3705,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9EC914-2D7E-4F77-8C4E-C8D1A97E0EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9869591-C063-41C9-9D48-13D0A56E67F6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5995,7 +6046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF88A5-9C2C-42AD-A7D7-CB3F8EE624D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0D9438-76B0-4FDD-A10D-BECAA428B6A1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,7 +6293,7 @@
         <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -6275,10 +6326,10 @@
         <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -6287,10 +6338,10 @@
         <v>10976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>350</v>
@@ -6308,7 +6359,7 @@
         <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,7 +6380,7 @@
         <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6338,13 +6389,13 @@
         <v>3115</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -6356,10 +6407,10 @@
         <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6478,13 @@
         <v>403837</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>335</v>
@@ -6442,13 +6493,13 @@
         <v>356269</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>727</v>
@@ -6457,13 +6508,13 @@
         <v>760106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6529,13 @@
         <v>164047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -6493,13 +6544,13 @@
         <v>150261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -6508,13 +6559,13 @@
         <v>314308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6580,13 @@
         <v>78362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -6544,13 +6595,13 @@
         <v>65101</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -6559,13 +6610,13 @@
         <v>143462</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,10 +6634,10 @@
         <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -6595,13 +6646,13 @@
         <v>31276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -6610,10 +6661,10 @@
         <v>66998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>391</v>
@@ -6652,7 +6703,7 @@
         <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -6664,10 +6715,10 @@
         <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6786,13 @@
         <v>364240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>367</v>
@@ -6750,13 +6801,13 @@
         <v>390753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
@@ -6765,13 +6816,13 @@
         <v>754992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6837,13 @@
         <v>169125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>169</v>
@@ -6801,13 +6852,13 @@
         <v>178517</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -6816,13 +6867,13 @@
         <v>347642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6888,13 @@
         <v>109606</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -6852,13 +6903,13 @@
         <v>77660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M18" s="7">
         <v>181</v>
@@ -6867,13 +6918,13 @@
         <v>187265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6939,13 @@
         <v>28941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>423</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -6903,13 +6954,13 @@
         <v>53397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -6918,13 +6969,13 @@
         <v>82338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6990,13 @@
         <v>9951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6957,10 +7008,10 @@
         <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -6969,13 +7020,13 @@
         <v>20476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7094,13 @@
         <v>324930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -7058,13 +7109,13 @@
         <v>300390</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>557</v>
@@ -7073,13 +7124,13 @@
         <v>625321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7145,13 @@
         <v>155112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -7109,13 +7160,13 @@
         <v>171332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>449</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M23" s="7">
         <v>288</v>
@@ -7124,13 +7175,13 @@
         <v>326445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7196,13 @@
         <v>90474</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -7160,13 +7211,13 @@
         <v>95542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -7175,13 +7226,13 @@
         <v>186016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7247,13 @@
         <v>31774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>464</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7211,13 +7262,13 @@
         <v>39812</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>466</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -7226,13 +7277,13 @@
         <v>71587</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7298,13 @@
         <v>10348</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>473</v>
+        <v>233</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -7265,10 +7316,10 @@
         <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7277,13 +7328,13 @@
         <v>19470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7402,13 @@
         <v>240060</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -7366,13 +7417,13 @@
         <v>213705</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -7381,13 +7432,13 @@
         <v>453766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7453,13 @@
         <v>98461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -7417,13 +7468,13 @@
         <v>131408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M29" s="7">
         <v>210</v>
@@ -7432,13 +7483,13 @@
         <v>229870</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7504,13 @@
         <v>64522</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -7468,13 +7519,13 @@
         <v>66838</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M30" s="7">
         <v>118</v>
@@ -7483,13 +7534,13 @@
         <v>131360</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7555,13 @@
         <v>24315</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>507</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7519,13 +7570,13 @@
         <v>25250</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -7534,13 +7585,13 @@
         <v>49565</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>507</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,7 +7606,7 @@
         <v>1023</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>508</v>
+        <v>357</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>229</v>
@@ -7573,10 +7624,10 @@
         <v>315</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -7585,13 +7636,13 @@
         <v>10582</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,28 +7710,28 @@
         <v>255968</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H34" s="7">
         <v>305</v>
       </c>
       <c r="I34" s="7">
-        <v>327909</v>
+        <v>327910</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M34" s="7">
         <v>541</v>
@@ -7689,13 +7740,13 @@
         <v>583878</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>520</v>
+        <v>284</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7761,13 @@
         <v>139274</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="H35" s="7">
         <v>192</v>
@@ -7725,13 +7776,13 @@
         <v>203858</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>314</v>
@@ -7740,13 +7791,13 @@
         <v>343132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,28 +7812,28 @@
         <v>113425</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H36" s="7">
         <v>121</v>
       </c>
       <c r="I36" s="7">
-        <v>128939</v>
+        <v>128940</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>218</v>
@@ -7791,13 +7842,13 @@
         <v>242364</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,43 +7863,43 @@
         <v>37008</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7">
         <v>64</v>
       </c>
       <c r="I37" s="7">
-        <v>69817</v>
+        <v>69818</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M37" s="7">
         <v>99</v>
       </c>
       <c r="N37" s="7">
-        <v>106826</v>
+        <v>106825</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,13 +7914,13 @@
         <v>9778</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7878,13 +7929,13 @@
         <v>11351</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -7893,13 +7944,13 @@
         <v>21129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>141</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>88</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,7 +7977,7 @@
         <v>693</v>
       </c>
       <c r="I39" s="7">
-        <v>741875</v>
+        <v>741876</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -7941,7 +7992,7 @@
         <v>1193</v>
       </c>
       <c r="N39" s="7">
-        <v>1297329</v>
+        <v>1297328</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -7967,13 +8018,13 @@
         <v>1885028</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H40" s="7">
         <v>1744</v>
@@ -7982,13 +8033,13 @@
         <v>1869517</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M40" s="7">
         <v>3523</v>
@@ -7997,13 +8048,13 @@
         <v>3754545</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8069,13 @@
         <v>827443</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="H41" s="7">
         <v>863</v>
@@ -8033,13 +8084,13 @@
         <v>927925</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M41" s="7">
         <v>1637</v>
@@ -8051,10 +8102,10 @@
         <v>260</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,13 +8120,13 @@
         <v>496582</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="H42" s="7">
         <v>438</v>
@@ -8084,13 +8135,13 @@
         <v>477180</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="M42" s="7">
         <v>897</v>
@@ -8099,13 +8150,13 @@
         <v>973762</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>85</v>
+        <v>582</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8171,13 @@
         <v>168771</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H43" s="7">
         <v>207</v>
@@ -8135,13 +8186,13 @@
         <v>230529</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>340</v>
+        <v>587</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M43" s="7">
         <v>359</v>
@@ -8150,13 +8201,13 @@
         <v>399300</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,13 +8222,13 @@
         <v>37476</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>588</v>
+        <v>231</v>
       </c>
       <c r="H44" s="7">
         <v>44</v>
@@ -8189,10 +8240,10 @@
         <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>146</v>
+        <v>595</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>276</v>
+        <v>596</v>
       </c>
       <c r="M44" s="7">
         <v>78</v>
@@ -8201,13 +8252,13 @@
         <v>88495</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,7 +8336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DEE822-23F9-433A-B42A-8270FDECF7F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEF5F96-C9BD-4E12-8062-9E79D10931C3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8302,7 +8353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8409,13 +8460,13 @@
         <v>219861</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H4" s="7">
         <v>195</v>
@@ -8424,13 +8475,13 @@
         <v>190243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>521</v>
+        <v>602</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -8439,13 +8490,13 @@
         <v>410104</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8511,13 @@
         <v>140314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H5" s="7">
         <v>163</v>
@@ -8475,13 +8526,13 @@
         <v>160364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -8490,13 +8541,13 @@
         <v>300678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>606</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8562,13 @@
         <v>45278</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -8526,13 +8577,13 @@
         <v>30445</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -8541,10 +8592,10 @@
         <v>75722</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>95</v>
+        <v>623</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>222</v>
@@ -8562,13 +8613,13 @@
         <v>8637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>616</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -8577,13 +8628,13 @@
         <v>14703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>627</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -8595,10 +8646,10 @@
         <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8664,13 @@
         <v>5374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8631,7 +8682,7 @@
         <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>97</v>
@@ -8643,13 +8694,13 @@
         <v>5374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>628</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8768,13 @@
         <v>276119</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="H10" s="7">
         <v>288</v>
@@ -8732,13 +8783,13 @@
         <v>281709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="M10" s="7">
         <v>555</v>
@@ -8747,13 +8798,13 @@
         <v>557828</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8768,13 +8819,13 @@
         <v>211787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -8783,13 +8834,13 @@
         <v>206030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="M11" s="7">
         <v>419</v>
@@ -8798,13 +8849,13 @@
         <v>417817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8870,13 @@
         <v>71874</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -8834,13 +8885,13 @@
         <v>51089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -8849,13 +8900,13 @@
         <v>122963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,13 +8921,13 @@
         <v>24879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>664</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -8885,13 +8936,13 @@
         <v>18859</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -8900,13 +8951,13 @@
         <v>43739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>668</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8921,13 +8972,13 @@
         <v>3393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -8936,13 +8987,13 @@
         <v>3383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>664</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -8951,13 +9002,13 @@
         <v>6776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>666</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,13 +9076,13 @@
         <v>290674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="H16" s="7">
         <v>299</v>
@@ -9040,13 +9091,13 @@
         <v>300027</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -9055,13 +9106,13 @@
         <v>590700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,13 +9127,13 @@
         <v>266039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="H17" s="7">
         <v>240</v>
@@ -9091,13 +9142,13 @@
         <v>233605</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>689</v>
       </c>
       <c r="M17" s="7">
         <v>495</v>
@@ -9106,13 +9157,13 @@
         <v>499644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>691</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9127,13 +9178,13 @@
         <v>81036</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>694</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="H18" s="7">
         <v>90</v>
@@ -9142,13 +9193,13 @@
         <v>90444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>697</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -9157,13 +9208,13 @@
         <v>171480</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9178,13 +9229,13 @@
         <v>26309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -9193,13 +9244,13 @@
         <v>29762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -9208,13 +9259,13 @@
         <v>56071</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9229,13 +9280,13 @@
         <v>4174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>698</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>553</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -9244,13 +9295,13 @@
         <v>6614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>712</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -9259,13 +9310,13 @@
         <v>10788</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>587</v>
+        <v>715</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>700</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,13 +9384,13 @@
         <v>269376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="H22" s="7">
         <v>237</v>
@@ -9348,13 +9399,13 @@
         <v>252857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="M22" s="7">
         <v>480</v>
@@ -9363,13 +9414,13 @@
         <v>522233</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9384,13 +9435,13 @@
         <v>217656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="H23" s="7">
         <v>245</v>
@@ -9399,13 +9450,13 @@
         <v>264302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="M23" s="7">
         <v>446</v>
@@ -9414,13 +9465,13 @@
         <v>481958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>718</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9435,13 +9486,13 @@
         <v>111362</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="H24" s="7">
         <v>88</v>
@@ -9450,13 +9501,13 @@
         <v>95215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="M24" s="7">
         <v>185</v>
@@ -9465,13 +9516,13 @@
         <v>206577</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9486,13 +9537,13 @@
         <v>39925</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>744</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -9504,10 +9555,10 @@
         <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>731</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -9516,13 +9567,13 @@
         <v>70222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9540,10 +9591,10 @@
         <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>236</v>
+        <v>751</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -9552,13 +9603,13 @@
         <v>6406</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>737</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>753</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -9570,10 +9621,10 @@
         <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>738</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>739</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9641,13 +9692,13 @@
         <v>189433</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="H28" s="7">
         <v>156</v>
@@ -9656,13 +9707,13 @@
         <v>178375</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="M28" s="7">
         <v>322</v>
@@ -9671,13 +9722,13 @@
         <v>367808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9692,13 +9743,13 @@
         <v>167879</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>751</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9707,13 +9758,13 @@
         <v>189632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>752</v>
+        <v>610</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>675</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -9722,13 +9773,13 @@
         <v>357511</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>642</v>
+        <v>767</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9743,13 +9794,13 @@
         <v>91760</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="H30" s="7">
         <v>86</v>
@@ -9758,13 +9809,13 @@
         <v>96506</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="M30" s="7">
         <v>169</v>
@@ -9773,13 +9824,13 @@
         <v>188266</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9794,13 +9845,13 @@
         <v>24921</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>766</v>
+        <v>467</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -9809,13 +9860,13 @@
         <v>24106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -9824,13 +9875,13 @@
         <v>49027</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>772</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9845,13 +9896,13 @@
         <v>2787</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>773</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -9860,13 +9911,13 @@
         <v>7184</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -9878,10 +9929,10 @@
         <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>787</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9949,13 +10000,13 @@
         <v>206548</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="H34" s="7">
         <v>195</v>
@@ -9964,13 +10015,13 @@
         <v>227966</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="M34" s="7">
         <v>412</v>
@@ -9982,10 +10033,10 @@
         <v>75</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>783</v>
+        <v>456</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10000,13 +10051,13 @@
         <v>243940</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>278</v>
+        <v>797</v>
       </c>
       <c r="H35" s="7">
         <v>264</v>
@@ -10018,10 +10069,10 @@
         <v>156</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="M35" s="7">
         <v>522</v>
@@ -10030,13 +10081,13 @@
         <v>554917</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>282</v>
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10051,13 +10102,13 @@
         <v>110085</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="H36" s="7">
         <v>139</v>
@@ -10066,13 +10117,13 @@
         <v>167313</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="M36" s="7">
         <v>257</v>
@@ -10081,13 +10132,13 @@
         <v>277398</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10102,13 +10153,13 @@
         <v>27009</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -10117,13 +10168,13 @@
         <v>63480</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
@@ -10132,13 +10183,13 @@
         <v>90489</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>807</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10153,10 +10204,10 @@
         <v>3746</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>699</v>
+        <v>819</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>184</v>
@@ -10168,13 +10219,13 @@
         <v>6924</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>52</v>
+        <v>821</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>810</v>
+        <v>56</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -10183,13 +10234,13 @@
         <v>10669</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>352</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10257,13 +10308,13 @@
         <v>1452011</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="H40" s="7">
         <v>1370</v>
@@ -10272,13 +10323,13 @@
         <v>1431178</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="M40" s="7">
         <v>2747</v>
@@ -10287,13 +10338,13 @@
         <v>2883188</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>602</v>
+        <v>832</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10308,13 +10359,13 @@
         <v>1247615</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="H41" s="7">
         <v>1290</v>
@@ -10323,13 +10374,13 @@
         <v>1364911</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="M41" s="7">
         <v>2491</v>
@@ -10338,13 +10389,13 @@
         <v>2612525</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10359,13 +10410,13 @@
         <v>511394</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>831</v>
+        <v>741</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="H42" s="7">
         <v>488</v>
@@ -10374,13 +10425,13 @@
         <v>531012</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="M42" s="7">
         <v>972</v>
@@ -10389,13 +10440,13 @@
         <v>1042406</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10410,13 +10461,13 @@
         <v>151681</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>765</v>
+        <v>852</v>
       </c>
       <c r="H43" s="7">
         <v>157</v>
@@ -10425,13 +10476,13 @@
         <v>181207</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>466</v>
+        <v>854</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="M43" s="7">
         <v>298</v>
@@ -10440,13 +10491,13 @@
         <v>332888</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>273</v>
+        <v>857</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10461,13 +10512,13 @@
         <v>26145</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>97</v>
+        <v>860</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="H44" s="7">
         <v>28</v>
@@ -10479,10 +10530,10 @@
         <v>274</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>738</v>
+        <v>862</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="M44" s="7">
         <v>51</v>
@@ -10494,7 +10545,7 @@
         <v>188</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>234</v>
@@ -10575,7 +10626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72A34BD-E921-448D-BCDC-2B9CF9732372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3E7277-37E5-4272-900F-0E425E69D35D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10592,7 +10643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10699,13 +10750,13 @@
         <v>270001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="H4" s="7">
         <v>135</v>
@@ -10714,13 +10765,13 @@
         <v>235422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="M4" s="7">
         <v>258</v>
@@ -10729,13 +10780,13 @@
         <v>505423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10750,13 +10801,13 @@
         <v>90442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>877</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -10765,13 +10816,13 @@
         <v>85690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -10780,13 +10831,13 @@
         <v>176132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>864</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10801,13 +10852,13 @@
         <v>17076</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>810</v>
+        <v>550</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>648</v>
+        <v>884</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -10816,13 +10867,13 @@
         <v>18058</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>866</v>
+        <v>669</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -10831,13 +10882,13 @@
         <v>35134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>869</v>
+        <v>542</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>553</v>
+        <v>887</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10852,13 +10903,13 @@
         <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>872</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -10867,13 +10918,13 @@
         <v>8071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>873</v>
+        <v>515</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>580</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -10882,13 +10933,13 @@
         <v>8231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10906,10 +10957,10 @@
         <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -10918,13 +10969,13 @@
         <v>7716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>894</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -10933,13 +10984,13 @@
         <v>7716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11007,13 +11058,13 @@
         <v>250136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -11022,13 +11073,13 @@
         <v>288597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -11037,13 +11088,13 @@
         <v>538734</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11058,13 +11109,13 @@
         <v>130320</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="H11" s="7">
         <v>155</v>
@@ -11073,13 +11124,13 @@
         <v>155538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>894</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -11091,10 +11142,10 @@
         <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>896</v>
+        <v>526</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11109,13 +11160,13 @@
         <v>23698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>730</v>
+        <v>914</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>505</v>
+        <v>915</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -11124,13 +11175,13 @@
         <v>30301</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -11139,13 +11190,13 @@
         <v>53999</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>919</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11160,13 +11211,13 @@
         <v>18038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>903</v>
+        <v>630</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>922</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -11175,13 +11226,13 @@
         <v>20819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>924</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -11190,13 +11241,13 @@
         <v>38856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11211,13 +11262,13 @@
         <v>6204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>737</v>
+        <v>928</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -11226,13 +11277,13 @@
         <v>3163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>699</v>
+        <v>929</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>658</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -11244,10 +11295,10 @@
         <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>910</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11315,13 +11366,13 @@
         <v>305747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="H16" s="7">
         <v>439</v>
@@ -11330,13 +11381,13 @@
         <v>313382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="M16" s="7">
         <v>728</v>
@@ -11345,13 +11396,13 @@
         <v>619130</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11366,13 +11417,13 @@
         <v>177351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="H17" s="7">
         <v>298</v>
@@ -11381,13 +11432,13 @@
         <v>201462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="M17" s="7">
         <v>476</v>
@@ -11396,13 +11447,13 @@
         <v>378813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11417,13 +11468,13 @@
         <v>39498</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>731</v>
+        <v>949</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>930</v>
+        <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>931</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -11432,13 +11483,13 @@
         <v>36976</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -11447,13 +11498,13 @@
         <v>76473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11468,13 +11519,13 @@
         <v>27509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>957</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -11483,13 +11534,13 @@
         <v>24116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>940</v>
+        <v>192</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>941</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -11498,13 +11549,13 @@
         <v>51625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11522,10 +11573,10 @@
         <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>860</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -11534,13 +11585,13 @@
         <v>7540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>946</v>
+        <v>634</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -11549,13 +11600,13 @@
         <v>14528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11623,13 +11674,13 @@
         <v>388350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="H22" s="7">
         <v>567</v>
@@ -11638,13 +11689,13 @@
         <v>374601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="M22" s="7">
         <v>898</v>
@@ -11653,13 +11704,13 @@
         <v>762951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11674,13 +11725,13 @@
         <v>213073</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="H23" s="7">
         <v>382</v>
@@ -11689,13 +11740,13 @@
         <v>242636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
       <c r="M23" s="7">
         <v>599</v>
@@ -11707,10 +11758,10 @@
         <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11725,13 +11776,13 @@
         <v>75004</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>507</v>
+        <v>983</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>967</v>
+        <v>984</v>
       </c>
       <c r="H24" s="7">
         <v>98</v>
@@ -11740,13 +11791,13 @@
         <v>65647</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>970</v>
+        <v>621</v>
       </c>
       <c r="M24" s="7">
         <v>165</v>
@@ -11758,10 +11809,10 @@
         <v>262</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11776,13 +11827,13 @@
         <v>38768</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>936</v>
+        <v>988</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -11791,13 +11842,13 @@
         <v>44987</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>976</v>
+        <v>992</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -11806,13 +11857,13 @@
         <v>83755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>691</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>976</v>
+        <v>883</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11827,13 +11878,13 @@
         <v>8795</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>661</v>
+        <v>862</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -11842,13 +11893,13 @@
         <v>18246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>979</v>
+        <v>557</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>846</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -11857,13 +11908,13 @@
         <v>27040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>981</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>996</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11931,13 +11982,13 @@
         <v>282993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="H28" s="7">
         <v>423</v>
@@ -11946,13 +11997,13 @@
         <v>248925</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="M28" s="7">
         <v>731</v>
@@ -11961,13 +12012,13 @@
         <v>531917</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11982,13 +12033,13 @@
         <v>208571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="H29" s="7">
         <v>374</v>
@@ -11997,13 +12048,13 @@
         <v>222722</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M29" s="7">
         <v>607</v>
@@ -12012,13 +12063,13 @@
         <v>431293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>779</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12033,13 +12084,13 @@
         <v>61698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="H30" s="7">
         <v>104</v>
@@ -12048,13 +12099,13 @@
         <v>64552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="M30" s="7">
         <v>171</v>
@@ -12063,13 +12114,13 @@
         <v>126250</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>542</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>682</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12084,13 +12135,13 @@
         <v>36772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1006</v>
+        <v>1023</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>1007</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -12099,13 +12150,13 @@
         <v>46048</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>309</v>
+        <v>1026</v>
       </c>
       <c r="M31" s="7">
         <v>119</v>
@@ -12114,13 +12165,13 @@
         <v>82820</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12135,13 +12186,13 @@
         <v>10123</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>587</v>
+        <v>1030</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1014</v>
+        <v>1031</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -12153,10 +12204,10 @@
         <v>88</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>618</v>
+        <v>1032</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -12165,13 +12216,13 @@
         <v>24938</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>1016</v>
+        <v>358</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12239,13 +12290,13 @@
         <v>304699</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1019</v>
+        <v>113</v>
       </c>
       <c r="H34" s="7">
         <v>723</v>
@@ -12254,13 +12305,13 @@
         <v>376371</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>825</v>
+        <v>1037</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="M34" s="7">
         <v>1173</v>
@@ -12269,13 +12320,13 @@
         <v>681070</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>983</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12290,13 +12341,13 @@
         <v>251466</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="H35" s="7">
         <v>582</v>
@@ -12305,13 +12356,13 @@
         <v>310056</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1028</v>
+        <v>33</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>1029</v>
+        <v>788</v>
       </c>
       <c r="M35" s="7">
         <v>951</v>
@@ -12320,13 +12371,13 @@
         <v>561522</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1030</v>
+        <v>1047</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>1031</v>
+        <v>1048</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>1032</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12341,13 +12392,13 @@
         <v>75286</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1034</v>
+        <v>886</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="H36" s="7">
         <v>220</v>
@@ -12359,10 +12410,10 @@
         <v>159</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="M36" s="7">
         <v>330</v>
@@ -12371,13 +12422,13 @@
         <v>308861</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12392,13 +12443,13 @@
         <v>47055</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>955</v>
       </c>
       <c r="H37" s="7">
         <v>134</v>
@@ -12407,13 +12458,13 @@
         <v>76192</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>974</v>
+        <v>1059</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1044</v>
+        <v>1061</v>
       </c>
       <c r="M37" s="7">
         <v>203</v>
@@ -12422,13 +12473,13 @@
         <v>123247</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>1046</v>
+        <v>961</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>1008</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12443,13 +12494,13 @@
         <v>18395</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1047</v>
+        <v>554</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1049</v>
+        <v>625</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -12458,13 +12509,13 @@
         <v>23649</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>431</v>
+        <v>1066</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>693</v>
+        <v>58</v>
       </c>
       <c r="M38" s="7">
         <v>71</v>
@@ -12473,13 +12524,13 @@
         <v>42044</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>979</v>
+        <v>557</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>1051</v>
+        <v>891</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12547,13 +12598,13 @@
         <v>1801926</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="H40" s="7">
         <v>2536</v>
@@ -12562,13 +12613,13 @@
         <v>1837298</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1055</v>
+        <v>441</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1056</v>
+        <v>1070</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>1057</v>
+        <v>12</v>
       </c>
       <c r="M40" s="7">
         <v>4206</v>
@@ -12577,13 +12628,13 @@
         <v>3639224</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12598,13 +12649,13 @@
         <v>1071222</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="H41" s="7">
         <v>1842</v>
@@ -12613,13 +12664,13 @@
         <v>1218104</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1064</v>
+        <v>453</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="M41" s="7">
         <v>2971</v>
@@ -12628,13 +12679,13 @@
         <v>2289327</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12649,13 +12700,13 @@
         <v>292260</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>901</v>
+        <v>1082</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>611</v>
+        <v>1083</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1070</v>
+        <v>1084</v>
       </c>
       <c r="H42" s="7">
         <v>515</v>
@@ -12664,13 +12715,13 @@
         <v>449109</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1071</v>
+        <v>1085</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1072</v>
+        <v>1086</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="M42" s="7">
         <v>827</v>
@@ -12679,13 +12730,13 @@
         <v>741368</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1074</v>
+        <v>1088</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>729</v>
+        <v>918</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>1075</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12700,13 +12751,13 @@
         <v>168302</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1076</v>
+        <v>348</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1077</v>
+        <v>708</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>580</v>
+        <v>1090</v>
       </c>
       <c r="H43" s="7">
         <v>353</v>
@@ -12715,13 +12766,13 @@
         <v>220233</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1043</v>
+        <v>1092</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1079</v>
+        <v>391</v>
       </c>
       <c r="M43" s="7">
         <v>554</v>
@@ -12730,13 +12781,13 @@
         <v>388535</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>136</v>
+        <v>1094</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>841</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12751,13 +12802,13 @@
         <v>50504</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>393</v>
+        <v>1096</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>586</v>
+        <v>890</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="H44" s="7">
         <v>108</v>
@@ -12769,10 +12820,10 @@
         <v>276</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="M44" s="7">
         <v>170</v>
@@ -12781,13 +12832,13 @@
         <v>125634</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>774</v>
+        <v>1101</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>236</v>
+        <v>893</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
